--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_optimization_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_optimization_1.xlsx
@@ -12,110 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>activation</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>neurons</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>hidden_layers</t>
-  </si>
-  <si>
-    <t>CORRELATION</t>
-  </si>
-  <si>
-    <t>FISHER</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>RMSprop</t>
-  </si>
-  <si>
-    <t>Adadelta</t>
-  </si>
-  <si>
-    <t>3.798425751759572e-08</t>
-  </si>
-  <si>
-    <t>3.798425751759574e-08</t>
-  </si>
-  <si>
-    <t>Adagrad</t>
-  </si>
-  <si>
-    <t>0.47159587031502714</t>
-  </si>
-  <si>
-    <t>0.5121206644508582</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>0.37179181207018563</t>
-  </si>
-  <si>
-    <t>0.39050071766249517</t>
-  </si>
-  <si>
-    <t>Adamax</t>
-  </si>
-  <si>
-    <t>0.33385355288508173</t>
-  </si>
-  <si>
-    <t>0.34715895153617304</t>
-  </si>
-  <si>
-    <t>Nadam</t>
-  </si>
-  <si>
-    <t>0.19643073452854623</t>
-  </si>
-  <si>
-    <t>0.19901731472226972</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,257 +366,401 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_layers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORRELATION</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6.780265944162868e-08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6.78026594416288e-08</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.3658276980327656</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.3835976044279799</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4">
       <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nadam</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.36549613758706495</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.38321486893508716</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.3596414337544763</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.3764740065456627</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adagrad</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.35918188436750936</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.37594628820920273</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0008757890334874801</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.0008757892573995752</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adadelta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>softsign</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-6.780265947668998e-08</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-6.780265947669007e-08</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_optimization_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_optimization_1.xlsx
@@ -454,18 +454,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RMSprop</t>
+          <t>Adadelta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -504,18 +504,18 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3658276980327656</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3835976044279799</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nadam</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -554,18 +554,18 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.36549613758706495</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.38321486893508716</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Adamax</t>
+          <t>Nadam</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -604,18 +604,18 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.3596414337544763</t>
+          <t>0.3659093954542619</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.3764740065456627</t>
+          <t>0.3836919279808732</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Adagrad</t>
+          <t>RMSprop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -654,18 +654,18 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.35918188436750936</t>
+          <t>0.36587556417016553</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.37594628820920273</t>
+          <t>0.3836528673669818</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Adagrad</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -704,18 +704,18 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0008757890334874801</t>
+          <t>0.3592951237952456</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.0008757892573995752</t>
+          <t>0.37607630684100285</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Adadelta</t>
+          <t>Adamax</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.35792428749814653</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.37450316231756847</t>
         </is>
       </c>
     </row>
